--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560324/JX560324_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560324/JX560324_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89307737574</v>
+        <v>45441.83334643792</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1536_1539instac']</t>
+          <t>['1570_1628del', '1353_1366del', '1507_1647del', '1483_1536del', '1373_1515del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89307740467</v>
+        <v>45441.83334646533</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['228g&gt;a']</t>
+          <t>['252_346del', '164_243inscgtcacgacagttagtcatcgctaccgacagtgctaatagacgctattactttcatatcccttccaacaaaggatggct', '161_271del', '221_294del', '199_346del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89307743555</v>
+        <v>45441.83334648849</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3606c&gt;t']</t>
+          <t>['3569_3700del', '3575_3624inscctaaatgagatcggataccggggtttctccgtgttcgcgaataagtgt', '3588_3728del', '3639_3691insgtgatatgcatgtgaataaattgccttagagaggactatacactccgccagg', '3654_3783insttgataagatctttcttatgcctaggtagcttgtactaggacgatgacaccaaagggattgaaagacaaaaacaaccaggacctctggggttcgcagattgtgtacccgattgcgcgttcttctgtgga']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89307745877</v>
+        <v>45441.83334651418</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1469_1473insggga']</t>
+          <t>['1362_1432del', '1511_1592insgcagcctcccgcccgggcgagcggccctttccggggcgcagggcgggcgtatggttctcaaggacctggttgtcatgtata', '1518_1584insgcctaagcataaattatctttatttgagccgtgcacgttcagcaatattcacaagatcgtatcccg', '1511_1549del', '1455_1486insctctatttagaataaatacgcgatgacacag']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['160_163del']</t>
+          <t>['210_252del', '224_326del', '168_285insttcctgtagagatcggactgggcgtaagcgtcgtgatatcatttaacgtcatgcctcagcagtttcagttcctgcgaggtaactcctccacgggcctatcaaagggtggaaattaca', '229_357del', '247_315del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89307748191</v>
+        <v>45441.83334653643</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1467_1469insat']</t>
+          <t>['1491_1638inscagagataaacagaccaaaaaattcgtcctaattcagcaagcggttttggactgaaatctttcctagacgcgttatacggagcccctagtgacaaatctctacgcaggccaggatatggagcactgtccgggagcggaccctgagct', '1455_1494del', '1539_1674insaaagccccagaccttgtatccactctgcagcatccatcaaataggcagtcatacgtgataggcgagtataataaaaccgttgagaaaggttgcctgccattcacctgtagcgagcgtattaagtgccagcggcgt', '1521_1667del', '1558_1629del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3570_3573inscat']</t>
+          <t>['3661_3677insagacatacattatcct', '3627_3734del', '3567_3636del', '3577_3685del', '3648_3703del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89307751085</v>
+        <v>45441.83334655379</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['212c&gt;t']</t>
+          <t>['207_334inscgacgcattctcgagaccaaagggccatttgtcgcagataagcccatacatcaaacgtgctcgcctagtttacaggccggcttcgcttatgctctgtccacgcatacgcctgcggccagtcctgaga', '166_208del', '179_260insatttaccatgatatctcaactagcaccctatgcctatgcacggaccactttacgtacgtgtgaggttatgtcaatgacaac', '214_234insctgtcaaaaacaggacagag', '254_371instgcagcacgatacggttttttttaacactaattccgtttctctctatgcaagcatcagtaccgctacacgttttcggttatccaccgaccgtctttaacccgacgttacctgccgca']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3569a&gt;t']</t>
+          <t>['3651_3797insttcgtagagagttagatgagtgaattcaggatcccccacggatctatccaggcagactctttatatcggatcaaaatggcaccgatcggtgactccattacccccgtgagtcgtgtgaggttaagatatgagtagaactctcaccc', '3626_3766insgcccttgtggatagaagaacttacaaggttgagcattttgatggtataagcgttccgtaattgatgacaagcctcctcgaacacgttagtcatatgattcattcgctcggaagtcacttaatgaagagttcgacgatttt', '3570_3589del', '3593_3650insataatctccgttatactatttccccctggtggcaacaatggattccgctgcttccca', '3568_3696del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89307753397</v>
+        <v>45441.83334658592</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1555_1556insc']</t>
+          <t>['1361_1441del', '1346_1366del', '1479_1565inscgaaatgatgaccccatcaattagacgcgccaacggacatgctacattgcacatgaataaggcctaatccctactgaacgtcttaa', '1417_1494instcgccggtcgcttgatccgcccgttccatcgtatcgaatggtactcgaaactagcagacgaacttaagatgatcgtc', '1336_1438del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['227g&gt;a']</t>
+          <t>['199_335del', '199_290insttacagctaggcccgattgtgggaagctcgccgaagtatggcaaacgtggaacacggaacccactctgccgagtttattcgtctaggcatg', '253_334del', '239_367inscggatttgtccgccgctggatatcctttggatgacggacagggaagaacagccggggtagaagaccacacgtgtttgattaagacacaacccgaagagggcagatggatatggtgtgcggtcacgcgc', '241_293del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3630a&gt;c']</t>
+          <t>['3631_3668del', '3605_3655insgcttggttttagccgttttggaaagctatggcagacacgtaaaagcgggc', '3573_3713instccccaatgggataaaaccactaccagctccaccttatatgccccttggtggttaccgctacttctatcccaatacatcaaaataacgattcttcactcaaggcagctacaccgcgtaacgaagaacatgcggtttacga', '3632_3719insccaaaggtcggtgttctttagtcggtagagagagtgtaagtccgtcggtacggcaggtggtggtagtgacgacgaaacgagtttgaa', '3596_3655del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89307755999</v>
+        <v>45441.83334660906</v>
       </c>
     </row>
   </sheetData>
